--- a/Data.xlsx
+++ b/Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SHYAM KUMAR.M\PycharmProjects\AutomationCertificate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ABHIJITH UDAYAKUMAR\PycharmProjects\PROJECT-CERTIFICATE-AUTOMATION\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED0AE901-58BA-4C9C-9BFC-0EDCCEEABDB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AF561FA-4801-4522-8089-5627ADC2501B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="8964" xr2:uid="{5480EC00-3311-4515-9C8F-0D3FDBCA8124}"/>
+    <workbookView xWindow="-77" yWindow="-77" windowWidth="33068" windowHeight="18068" xr2:uid="{5480EC00-3311-4515-9C8F-0D3FDBCA8124}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -421,72 +421,72 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.69140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>12</v>
       </c>
